--- a/Tables/Tables.xlsx
+++ b/Tables/Tables.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="5"/>
   </bookViews>
@@ -15,17 +15,12 @@
     <sheet name="Contributions_t1" sheetId="6" r:id="rId6"/>
     <sheet name="Derivatives_t1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="140001" fullCalcOnLoad="true" concurrentCalc="false"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="124">
   <si>
     <t>countryorarea</t>
   </si>
@@ -402,8 +397,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -440,122 +435,122 @@
   </borders>
   <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="true"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="true"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -884,16 +879,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -927,7 +922,7 @@
         <v>5.4108470678329468E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -944,7 +939,7 @@
         <v>2.8581995517015457E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -961,7 +956,7 @@
         <v>0.10533922910690308</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -978,7 +973,7 @@
         <v>8.1682957708835602E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -995,7 +990,7 @@
         <v>0.11660017073154449</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1012,7 +1007,7 @@
         <v>2.4145849049091339E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1024,7 @@
         <v>0.1379285603761673</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1041,7 @@
         <v>2.2625083103775978E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1058,7 @@
         <v>2.4675769731402397E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1075,7 @@
         <v>9.0887837111949921E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1097,7 +1092,7 @@
         <v>9.0305574238300323E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1114,7 +1109,7 @@
         <v>7.6203338801860809E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1131,7 +1126,7 @@
         <v>8.904440701007843E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1143,7 @@
         <v>6.0969311743974686E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1168,25 +1163,20 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1238,7 +1228,7 @@
         <v>9.205453097820282E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1254,7 @@
         <v>-7.6870247721672058E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +1280,7 @@
         <v>0.12571719288825989</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1306,7 @@
         <v>-0.32530540227890015</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1342,7 +1332,7 @@
         <v>-0.13398788869380951</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1358,7 @@
         <v>0.62041747570037842</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1384,7 @@
         <v>-0.65481299161911011</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1410,7 @@
         <v>-7.2637386620044708E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1446,7 +1436,7 @@
         <v>-4.5134127140045166E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1462,7 @@
         <v>-0.24080592393875122</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1498,7 +1488,7 @@
         <v>7.0780329406261444E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1524,7 +1514,7 @@
         <v>-0.76651835441589355</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1540,7 @@
         <v>-0.14960803091526031</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1576,7 +1566,7 @@
         <v>-4.3180584907531738E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1605,28 +1595,23 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25" customHeight="1">
+    <row r="1" ht="25" customHeight="true">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1649,7 +1634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="true">
       <c r="A2" s="7" t="s">
         <v>103</v>
       </c>
@@ -1660,7 +1645,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" s="12" t="s">
         <v>104</v>
       </c>
@@ -1689,7 +1674,7 @@
         <v>4.9006529152393341E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" s="12" t="s">
         <v>105</v>
       </c>
@@ -1718,7 +1703,7 @@
         <v>3.7163842469453812E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5">
       <c r="A5" s="12" t="s">
         <v>106</v>
       </c>
@@ -1747,7 +1732,7 @@
         <v>7.9300381243228912E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6">
       <c r="A6" s="12" t="s">
         <v>107</v>
       </c>
@@ -1776,7 +1761,7 @@
         <v>9.7170814871788025E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" s="12" t="s">
         <v>108</v>
       </c>
@@ -1805,7 +1790,7 @@
         <v>0.13250528275966644</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8">
       <c r="A8" s="12" t="s">
         <v>109</v>
       </c>
@@ -1834,7 +1819,7 @@
         <v>3.0232952907681465E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9">
       <c r="A9" s="12" t="s">
         <v>110</v>
       </c>
@@ -1863,7 +1848,7 @@
         <v>0.14818598330020905</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10">
       <c r="A10" s="12" t="s">
         <v>111</v>
       </c>
@@ -1892,7 +1877,7 @@
         <v>3.7111010402441025E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11">
       <c r="A11" s="12" t="s">
         <v>112</v>
       </c>
@@ -1921,7 +1906,7 @@
         <v>3.0021950602531433E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12">
       <c r="A12" s="12" t="s">
         <v>113</v>
       </c>
@@ -1950,7 +1935,7 @@
         <v>6.1027642339468002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13">
       <c r="A13" s="12" t="s">
         <v>114</v>
       </c>
@@ -1979,7 +1964,7 @@
         <v>6.2040939927101135E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14">
       <c r="A14" s="12" t="s">
         <v>115</v>
       </c>
@@ -2008,7 +1993,7 @@
         <v>8.7503023445606232E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15">
       <c r="A15" s="12" t="s">
         <v>116</v>
       </c>
@@ -2037,7 +2022,7 @@
         <v>5.8278437703847885E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16">
       <c r="A16" s="12" t="s">
         <v>102</v>
       </c>
@@ -2066,7 +2051,7 @@
         <v>6.6093519330024719E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17">
       <c r="A17" s="12" t="s">
         <v>117</v>
       </c>
@@ -2077,7 +2062,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -2109,31 +2094,26 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="1.1640625" customWidth="1"/>
-    <col min="9" max="11" width="9" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="true"/>
+    <col min="2" max="7" width="9" customWidth="true"/>
+    <col min="8" max="8" width="1.1640625" customWidth="true"/>
+    <col min="9" max="11" width="9" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" customHeight="1">
+    <row r="1" ht="20" customHeight="true">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -2152,7 +2132,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:12" ht="4" customHeight="1">
+    <row r="2" ht="4" customHeight="true">
       <c r="A2" s="11"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2165,7 +2145,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="49" customHeight="1">
+    <row r="3" s="1" customFormat="true" ht="49" customHeight="true">
       <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>29</v>
@@ -2195,12 +2175,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="21" customHeight="1">
+    <row r="4" s="8" customFormat="true" ht="21" customHeight="true">
       <c r="A4" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5">
       <c r="A5" s="12" t="s">
         <v>119</v>
       </c>
@@ -2243,7 +2223,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6">
       <c r="A6" s="12" t="s">
         <v>105</v>
       </c>
@@ -2286,7 +2266,7 @@
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7">
       <c r="A7" s="12" t="s">
         <v>106</v>
       </c>
@@ -2329,7 +2309,7 @@
       </c>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8">
       <c r="A8" s="12" t="s">
         <v>107</v>
       </c>
@@ -2372,7 +2352,7 @@
       </c>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9">
       <c r="A9" s="12" t="s">
         <v>108</v>
       </c>
@@ -2415,7 +2395,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10">
       <c r="A10" s="12" t="s">
         <v>109</v>
       </c>
@@ -2458,7 +2438,7 @@
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11">
       <c r="A11" s="12" t="s">
         <v>110</v>
       </c>
@@ -2501,7 +2481,7 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12">
       <c r="A12" s="12" t="s">
         <v>120</v>
       </c>
@@ -2544,7 +2524,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13">
       <c r="A13" s="12" t="s">
         <v>112</v>
       </c>
@@ -2587,7 +2567,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14">
       <c r="A14" s="12" t="s">
         <v>113</v>
       </c>
@@ -2630,7 +2610,7 @@
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15">
       <c r="A15" s="12" t="s">
         <v>114</v>
       </c>
@@ -2673,7 +2653,7 @@
       </c>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16">
       <c r="A16" s="12" t="s">
         <v>115</v>
       </c>
@@ -2716,7 +2696,7 @@
       </c>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17">
       <c r="A17" s="12" t="s">
         <v>121</v>
       </c>
@@ -2759,7 +2739,7 @@
       </c>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18">
       <c r="A18" s="12" t="s">
         <v>102</v>
       </c>
@@ -2802,7 +2782,7 @@
       </c>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19">
       <c r="A19" s="12" t="s">
         <v>122</v>
       </c>
@@ -2818,7 +2798,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20">
       <c r="A20" s="12" t="s">
         <v>118</v>
       </c>
@@ -2869,25 +2849,20 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -3045,1766 +3020,1761 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" s="0">
         <v>777700000000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>44790000000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>70440000000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>127200000000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>14560000000</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>7103000000</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>443300000000</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>12380000000</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>27860000000</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>207200000000</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="0">
         <v>17850000000</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0">
         <v>35490000000</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="0">
         <v>40030000000</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="0">
         <v>9102000000</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="0">
         <v>12960000000</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="0">
         <v>1978</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="0">
         <v>1370100072448</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="0">
         <v>1219899949056</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="0">
         <v>996349968384</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="0">
         <v>65921998848</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="0">
         <v>756568031232</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="0">
         <v>206149992448</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="0">
         <v>223549997056</v>
       </c>
-      <c r="X2">
-        <v>4.8114731907844543E-2</v>
-      </c>
-      <c r="Y2">
+      <c r="X2" s="0">
+        <v>0.048114731907844543</v>
+      </c>
+      <c r="Y2" s="0">
         <v>0.15046346187591553</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="0">
         <v>0.55219912528991699</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="0">
         <v>0.72720962762832642</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="0">
         <v>373750104064</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="0">
         <v>27.279037475585938</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="0">
         <v>18.325273513793945</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="0">
         <v>55.157173156738281</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="0">
         <v>31.977685928344727</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="0">
         <v>75.9339599609375</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="0">
         <v>42.112495422363281</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="0">
         <v>801.49298095703125</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="0">
         <v>25.319164276123047</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="0">
         <v>16.531110763549805</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="0">
         <v>17.235467910766602</v>
       </c>
-      <c r="AM2">
-        <v>8.7880536913871765E-2</v>
-      </c>
-      <c r="AN2">
+      <c r="AM2" s="0">
+        <v>0.087880536913871765</v>
+      </c>
+      <c r="AN2" s="0">
         <v>31.458389282226562</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="0">
         <v>57.488815307617188</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="0">
         <v>55.402500152587891</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="0">
         <v>-0.26030427217483521</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="0">
         <v>43.228359222412109</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="0">
         <v>25.979555130004883</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="0">
         <v>27.362033843994141</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="0">
         <v>0.17248806357383728</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="0">
         <v>19.705106735229492</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="0">
         <v>4.7770986557006836</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="0">
         <v>5.9735679626464844</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="0">
         <v>0.14928007125854492</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="0">
         <v>23.228061676025391</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0">
         <v>1277000000000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>89320000000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>108700000000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>194600000000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>28020000000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>13120000000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>730000000000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>28690000000</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>45850000000</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0">
         <v>352300000000</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="0">
         <v>32620000000</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0">
         <v>49770000000</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="0">
         <v>66300000000</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="0">
         <v>13370000000</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="0">
         <v>17250000000</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="0">
         <v>1981</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="0">
         <v>2356900003840</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="0">
         <v>2076700049408</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="0">
         <v>1676060000256</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="0">
         <v>121929998336</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="0">
         <v>1244389965824</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="0">
         <v>355940040704</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="0">
         <v>400639950848</v>
       </c>
-      <c r="X3">
-        <v>5.1733206957578659E-2</v>
-      </c>
-      <c r="Y3">
+      <c r="X3" s="0">
+        <v>0.051733206957578659</v>
+      </c>
+      <c r="Y3" s="0">
         <v>0.15102042257785797</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="0">
         <v>0.52797740697860718</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="0">
         <v>0.71112900972366333</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="0">
         <v>680840003584</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="0">
         <v>28.88709831237793</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="0">
         <v>19.292142868041992</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="0">
         <v>52.279544830322266</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="0">
         <v>34.255771636962891</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="0">
         <v>74.244949340820312</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="0">
         <v>46.138851165771484</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="0">
         <v>892.3970947265625</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="0">
         <v>26.208480834960938</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="0">
         <v>15.321885108947754</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="0">
         <v>16.293399810791016</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="0">
         <v>0.10886596143245697</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="0">
         <v>34.810958862304688</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="0">
         <v>57.55792236328125</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="0">
         <v>55.527984619140625</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="0">
         <v>-0.22746965289115906</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="0">
         <v>38.998607635498047</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="0">
         <v>27.111196517944336</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="0">
         <v>28.172025680541992</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="0">
         <v>0.11887410283088684</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="0">
         <v>15.20954704284668</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="0">
         <v>4.9120450019836426</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="0">
         <v>5.830991268157959</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="0">
         <v>0.10297501087188721</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="0">
         <v>24.121181488037109</v>
       </c>
     </row>
-    <row r="4" spans="1:52">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0">
         <v>2208000000000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>197400000000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>160900000000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>299200000000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>57000000000</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>17980000000</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>1254000000000</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>71550000000</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>73140000000</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0">
         <v>654800000000</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="0">
         <v>68800000000</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="0">
         <v>69760000000</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="0">
         <v>131900000000</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="0">
         <v>25670000000</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="0">
         <v>23670000000</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="0">
         <v>1987</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="0">
         <v>4078100021248</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="0">
         <v>3574699917312</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="0">
         <v>2853819908096</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="0">
         <v>245670002688</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="0">
         <v>2159729967104</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="0">
         <v>758179954688</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="0">
         <v>720880009216</v>
       </c>
-      <c r="X4">
-        <v>6.0241289436817169E-2</v>
-      </c>
-      <c r="Y4">
+      <c r="X4" s="0">
+        <v>0.060241289436817169</v>
+      </c>
+      <c r="Y4" s="0">
         <v>0.18591499328613281</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="0">
         <v>0.52959221601486206</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="0">
         <v>0.6997915506362915</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="0">
         <v>1224280113152</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="0">
         <v>30.020845413208008</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="0">
         <v>20.166168212890625</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="0">
         <v>61.928634643554688</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="0">
         <v>32.402599334716797</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="0">
         <v>75.678565979003906</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="0">
         <v>42.816085815429688</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="0">
         <v>1021.3270263671875</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="0">
         <v>25.397485733032227</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="0">
         <v>13.603830337524414</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="0">
         <v>14.808347702026367</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="0">
         <v>0.11793655157089233</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="0">
         <v>38.055931091308594</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="0">
         <v>57.046855926513672</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="0">
         <v>55.107261657714844</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="0">
         <v>-0.18990924954414368</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="0">
         <v>36.523792266845703</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="0">
         <v>29.34959602355957</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="0">
         <v>30.082315444946289</v>
       </c>
-      <c r="AU4">
-        <v>7.1741968393325806E-2</v>
-      </c>
-      <c r="AV4">
+      <c r="AU4" s="0">
+        <v>0.071741968393325806</v>
+      </c>
+      <c r="AV4" s="0">
         <v>13.339439392089844</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="0">
         <v>5.7784538269042969</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="0">
         <v>6.5506777763366699</v>
       </c>
-      <c r="AY4">
-        <v>7.5609847903251648E-2</v>
-      </c>
-      <c r="AZ4">
+      <c r="AY4" s="0">
+        <v>0.075609847903251648</v>
+      </c>
+      <c r="AZ4" s="0">
         <v>26.515419006347656</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0">
         <v>2882000000000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>251300000000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>222900000000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>377500000000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>69140000000</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>24260000000</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>1644000000000</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>85570000000</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>98760000000</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0">
         <v>860100000000</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="0">
         <v>96610000000</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0">
         <v>99910000000</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="0">
         <v>174800000000</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0">
         <v>32110000000</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0">
         <v>26130000000</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="0">
         <v>1992</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="0">
         <v>5466499842048</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="0">
         <v>4791099981824</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="0">
         <v>3826660147200</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="0">
         <v>318170005504</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="0">
         <v>2815130075136</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="0">
         <v>1055639928832</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="0">
         <v>964439965696</v>
       </c>
-      <c r="X5">
-        <v>5.8203607797622681E-2</v>
-      </c>
-      <c r="Y5">
+      <c r="X5" s="0">
+        <v>0.058203607797622681</v>
+      </c>
+      <c r="Y5" s="0">
         <v>0.19311076402664185</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="0">
         <v>0.51497852802276611</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="0">
         <v>0.7000201940536499</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="0">
         <v>1639839694848</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="0">
         <v>29.997983932495117</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="0">
         <v>20.129823684692383</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="0">
         <v>64.374580383300781</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="0">
         <v>30.140012741088867</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="0">
         <v>73.566238403320312</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="0">
         <v>40.969894409179688</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="0">
         <v>1015.4469604492188</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="0">
         <v>24.017978668212891</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="0">
         <v>13.151150703430176</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="0">
         <v>14.254619598388672</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="0">
         <v>0.10866826772689819</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="0">
         <v>36.206428527832031</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="0">
         <v>57.346267700195312</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="0">
         <v>55.199630737304688</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="0">
         <v>-0.21139836311340332</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="0">
         <v>39.784706115722656</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="0">
         <v>29.48805046081543</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="0">
         <v>30.533622741699219</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" s="0">
         <v>0.1029665470123291</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" s="0">
         <v>12.555866241455078</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="0">
         <v>5.9308452606201172</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" s="0">
         <v>6.6035804748535156</v>
       </c>
-      <c r="AY5">
-        <v>6.6250205039978027E-2</v>
-      </c>
-      <c r="AZ5">
+      <c r="AY5" s="0">
+        <v>0.066250205039978027</v>
+      </c>
+      <c r="AZ5" s="0">
         <v>26.374197006225586</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0">
         <v>3427000000000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>238000000000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>229300000000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>409200000000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>59930000000</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>22880000000</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>1867000000000</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>81830000000</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>102500000000</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="0">
         <v>1150000000000</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="0">
         <v>96190000000</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="0">
         <v>103900000000</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="0">
         <v>321400000000</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0">
         <v>25080000000</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="0">
         <v>33920000000</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="0">
         <v>1995</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="0">
         <v>6437100060672</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="0">
         <v>5672600076288</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="0">
         <v>4470450159616</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="0">
         <v>306790006784</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="0">
         <v>3358210129920</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="0">
         <v>1219549855744</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="0">
         <v>1202150047744</v>
       </c>
-      <c r="X6">
-        <v>4.7659661620855331E-2</v>
-      </c>
-      <c r="Y6">
+      <c r="X6" s="0">
+        <v>0.047659661620855331</v>
+      </c>
+      <c r="Y6" s="0">
         <v>0.18945640325546265</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="0">
         <v>0.52169615030288696</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="0">
         <v>0.69448202848434448</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="0">
         <v>1966649901056</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="0">
         <v>30.551799774169922</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="0">
         <v>21.192222595214844</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="0">
         <v>62.011539459228516</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="0">
         <v>25.156003952026367</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="0">
         <v>75.12017822265625</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="0">
         <v>33.487678527832031</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="0">
         <v>837.08050537109375</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="0">
         <v>21.771896362304688</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="0">
         <v>11.980668067932129</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="0">
         <v>12.800272941589355</v>
       </c>
-      <c r="AM6">
-        <v>9.7912274301052094E-2</v>
-      </c>
-      <c r="AN6">
+      <c r="AM6" s="0">
+        <v>0.097912274301052094</v>
+      </c>
+      <c r="AN6" s="0">
         <v>36.696113586425781</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="0">
         <v>54.679428100585938</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="0">
         <v>53.174079895019531</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="0">
         <v>-0.17983317375183105</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="0">
         <v>41.513736724853516</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="0">
         <v>33.316261291503906</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="0">
         <v>34.002456665039062</v>
       </c>
-      <c r="AU6">
-        <v>8.1974774599075317E-2</v>
-      </c>
-      <c r="AV6">
+      <c r="AU6" s="0">
+        <v>0.081974774599075317</v>
+      </c>
+      <c r="AV6" s="0">
         <v>11.491899490356445</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="0">
         <v>9.2675561904907227</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" s="0">
         <v>9.4537515640258789</v>
       </c>
-      <c r="AY6">
-        <v>2.22434401512146E-2</v>
-      </c>
-      <c r="AZ6">
+      <c r="AY6" s="0">
+        <v>0.0222434401512146</v>
+      </c>
+      <c r="AZ6" s="0">
         <v>20.766223907470703</v>
       </c>
     </row>
-    <row r="7" spans="1:52">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="0">
         <v>5043000000000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>377900000000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>351800000000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>658700000000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>79950000000</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>34040000000</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>2681000000000</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>132400000000</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>139900000000</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="0">
         <v>1703000000000</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="0">
         <v>165600000000</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="0">
         <v>177900000000</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="0">
         <v>511800000000</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0">
         <v>37820000000</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="0">
         <v>72130000000</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="0">
         <v>2000</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="0">
         <v>9765106221056</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="0">
         <v>8250866532352</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="0">
         <v>6585645531136</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="0">
         <v>483440001024</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="0">
         <v>4937460219904</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="0">
         <v>1758805229568</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="0">
         <v>1665221001216</v>
       </c>
-      <c r="X7">
-        <v>4.9506887793540955E-2</v>
-      </c>
-      <c r="Y7">
+      <c r="X7" s="0">
+        <v>0.049506887793540955</v>
+      </c>
+      <c r="Y7" s="0">
         <v>0.18011122941970825</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="0">
         <v>0.50562280416488647</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="0">
         <v>0.67440593242645264</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="0">
         <v>3179460689920</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="0">
         <v>32.559406280517578</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="0">
         <v>20.182376861572266</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="0">
         <v>55.317722320556641</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="0">
         <v>27.486839294433594</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="0">
         <v>74.973068237304688</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="0">
         <v>36.662284851074219</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="0">
         <v>891.80755615234375</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="0">
         <v>18.650091171264648</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="0">
         <v>13.134039878845215</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="0">
         <v>13.62596607208252</v>
       </c>
-      <c r="AM7">
-        <v>5.5160507559776306E-2</v>
-      </c>
-      <c r="AN7">
+      <c r="AM7" s="0">
+        <v>0.055160507559776306</v>
+      </c>
+      <c r="AN7" s="0">
         <v>36.068592071533203</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" s="0">
         <v>53.449142456054688</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="0">
         <v>51.899127960205078</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="0">
         <v>-0.17380550503730774</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="0">
         <v>45.294143676757812</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="0">
         <v>33.410499572753906</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" s="0">
         <v>34.470291137695312</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" s="0">
         <v>0.11883643269538879</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" s="0">
         <v>12.299147605895996</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="0">
         <v>9.9273920059204102</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" s="0">
         <v>10.138906478881836</v>
       </c>
-      <c r="AY7">
-        <v>2.371755987405777E-2</v>
-      </c>
-      <c r="AZ7">
+      <c r="AY7" s="0">
+        <v>0.02371755987405777</v>
+      </c>
+      <c r="AZ7" s="0">
         <v>20.280742645263672</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0">
         <v>5599000000000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>337900000000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>345800000000</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>679500000000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>66220000000</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>41340000000</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>2999000000000</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>124800000000</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>157500000000</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="0">
         <v>1920000000000</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="0">
         <v>146900000000</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0">
         <v>147000000000</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="0">
         <v>548100000000</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="0">
         <v>34260000000</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="0">
         <v>51320000000</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="0">
         <v>2004</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="0">
         <v>11564337856512</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="0">
         <v>9732639162368</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="0">
         <v>7627074961408</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="0">
         <v>441639993344</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="0">
         <v>5495260184576</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="0">
         <v>2057096527872</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="0">
         <v>2105563545600</v>
       </c>
-      <c r="X8">
-        <v>3.8189820945262909E-2</v>
-      </c>
-      <c r="Y8">
+      <c r="X8" s="0">
+        <v>0.038189820945262909</v>
+      </c>
+      <c r="Y8" s="0">
         <v>0.17788277566432953</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="0">
         <v>0.47519022226333618</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="0">
         <v>0.65953409671783447</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="0">
         <v>3937262895104</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="0">
         <v>34.046588897705078</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="0">
         <v>21.634044647216797</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="0">
         <v>52.246868133544922</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="0">
         <v>21.469093322753906</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="0">
         <v>72.04937744140625</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="0">
         <v>29.797750473022461</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="0">
         <v>743.88983154296875</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="0">
         <v>17.802282333374023</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="0">
         <v>12.13951587677002</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="0">
         <v>12.560764312744141</v>
       </c>
-      <c r="AM8">
-        <v>5.6627653539180756E-2</v>
-      </c>
-      <c r="AN8">
+      <c r="AM8" s="0">
+        <v>0.056627653539180756</v>
+      </c>
+      <c r="AN8" s="0">
         <v>38.957069396972656</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" s="0">
         <v>53.714473724365234</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" s="0">
         <v>52.616683959960938</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" s="0">
         <v>-0.1475740373134613</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" s="0">
         <v>43.247894287109375</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" s="0">
         <v>34.136692047119141</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="0">
         <v>34.814464569091797</v>
       </c>
-      <c r="AU8">
-        <v>9.1112017631530762E-2</v>
-      </c>
-      <c r="AV8">
+      <c r="AU8" s="0">
+        <v>0.091112017631530762</v>
+      </c>
+      <c r="AV8" s="0">
         <v>11.243546485900879</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" s="0">
         <v>9.6938819885253906</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" s="0">
         <v>9.8091592788696289</v>
       </c>
-      <c r="AY8">
-        <v>1.5496648848056793E-2</v>
-      </c>
-      <c r="AZ8">
+      <c r="AY8" s="0">
+        <v>0.015496648848056793</v>
+      </c>
+      <c r="AZ8" s="0">
         <v>15.568391799926758</v>
       </c>
     </row>
-    <row r="9" spans="1:52">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0">
         <v>6441000000000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>451900000000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>419800000000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>824600000000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>79210000000</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>48990000000</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>3463000000000</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>180800000000</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>191700000000</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="0">
         <v>2153000000000</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="0">
         <v>191800000000</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="0">
         <v>179200000000</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="0">
         <v>592600000000</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="0">
         <v>38790000000</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="0">
         <v>62700000000</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="0">
         <v>2007</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="0">
         <v>13616256385024</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="0">
         <v>11351906844672</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="0">
         <v>8892374319104</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="0">
         <v>577840021504</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="0">
         <v>6315059970048</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="0">
         <v>2584497881088</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="0">
         <v>2459532525568</v>
       </c>
-      <c r="X9">
-        <v>4.2437508702278137E-2</v>
-      </c>
-      <c r="Y9">
+      <c r="X9" s="0">
+        <v>0.042437508702278137</v>
+      </c>
+      <c r="Y9" s="0">
         <v>0.18980972468852997</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="0">
         <v>0.46378827095031738</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="0">
         <v>0.65307044982910156</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="0">
         <v>4723882065920</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="0">
         <v>34.692958831787109</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="0">
         <v>21.666250228881836</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="0">
         <v>54.711311340332031</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="0">
         <v>22.357921600341797</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="0">
         <v>71.016578674316406</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="0">
         <v>31.48267936706543</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="0">
         <v>838.31195068359375</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="0">
         <v>16.251382827758789</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="0">
         <v>12.824945449829102</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="0">
         <v>13.112187385559082</v>
       </c>
-      <c r="AM9">
-        <v>3.426438570022583E-2</v>
-      </c>
-      <c r="AN9">
+      <c r="AM9" s="0">
+        <v>0.03426438570022583</v>
+      </c>
+      <c r="AN9" s="0">
         <v>41.241519927978516</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" s="0">
         <v>53.926486968994141</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" s="0">
         <v>52.863090515136719</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" s="0">
         <v>-0.12684965133666992</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" s="0">
         <v>42.496192932128906</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" s="0">
         <v>33.241806030273438</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" s="0">
         <v>34.017612457275391</v>
       </c>
-      <c r="AU9">
-        <v>9.2543870210647583E-2</v>
-      </c>
-      <c r="AV9">
+      <c r="AU9" s="0">
+        <v>0.092543870210647583</v>
+      </c>
+      <c r="AV9" s="0">
         <v>9.9681568145751953</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" s="0">
         <v>9.0860576629638672</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" s="0">
         <v>9.1600055694580078</v>
       </c>
-      <c r="AY9">
-        <v>8.8209956884384155E-3</v>
-      </c>
-      <c r="AZ9">
+      <c r="AY9" s="0">
+        <v>0.0088209956884384155</v>
+      </c>
+      <c r="AZ9" s="0">
         <v>17.224586486816406</v>
       </c>
     </row>
-    <row r="10" spans="1:52">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" s="0">
         <v>6413000000000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>353000000000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>371600000000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>695700000000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>66060000000</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>43650000000</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>3475000000000</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>144700000000</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>162600000000</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="0">
         <v>2243000000000</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="0">
         <v>142200000000</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="0">
         <v>165300000000</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="0">
         <v>584900000000</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0">
         <v>30640000000</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0">
         <v>63230000000</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="0">
         <v>2010</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="0">
         <v>14127916384256</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="0">
         <v>11746325561344</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="0">
         <v>8935276806144</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="0">
         <v>464480010240</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="0">
         <v>6301520232448</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="0">
         <v>2493566418944</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="0">
         <v>2811049017344</v>
       </c>
-      <c r="X10">
-        <v>3.2876752316951752E-2</v>
-      </c>
-      <c r="Y10">
+      <c r="X10" s="0">
+        <v>0.032876752316951752</v>
+      </c>
+      <c r="Y10" s="0">
         <v>0.17649923264980316</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="0">
         <v>0.44603323936462402</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="0">
         <v>0.63245540857315063</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="0">
         <v>5192639578112</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="0">
         <v>36.754463195800781</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="0">
         <v>23.931304931640625</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="0">
         <v>48.021171569824219</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="0">
         <v>18.62713623046875</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="0">
         <v>70.524063110351562</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="0">
         <v>26.412454605102539</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="0">
         <v>686.49127197265625</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="0">
         <v>17.04163932800293</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="0">
         <v>10.832386016845703</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="0">
         <v>11.258646011352539</v>
       </c>
-      <c r="AM10">
-        <v>6.2092520296573639E-2</v>
-      </c>
-      <c r="AN10">
+      <c r="AM10" s="0">
+        <v>0.062092520296573639</v>
+      </c>
+      <c r="AN10" s="0">
         <v>41.655181884765625</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" s="0">
         <v>54.371326446533203</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" s="0">
         <v>53.498374938964844</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" s="0">
         <v>-0.12716144323348999</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" s="0">
         <v>41.291336059570312</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" s="0">
         <v>34.807632446289062</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" s="0">
         <v>35.252735137939453</v>
       </c>
-      <c r="AU10">
-        <v>6.4837008714675903E-2</v>
-      </c>
-      <c r="AV10">
+      <c r="AU10" s="0">
+        <v>0.064837008714675903</v>
+      </c>
+      <c r="AV10" s="0">
         <v>10.680545806884766</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" s="0">
         <v>8.980865478515625</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" s="0">
         <v>9.0975465774536133</v>
       </c>
-      <c r="AY10">
-        <v>1.6996808350086212E-2</v>
-      </c>
-      <c r="AZ10">
+      <c r="AY10" s="0">
+        <v>0.016996808350086212</v>
+      </c>
+      <c r="AZ10" s="0">
         <v>12.683570861816406</v>
       </c>
     </row>
-    <row r="11" spans="1:52">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0">
         <v>7116000000000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>455000000000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>373900000000</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>762500000000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>73680000000</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>45320000000</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>3818000000000</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>176200000000</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>166400000000</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="0">
         <v>2535000000000</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="0">
         <v>205200000000</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="0">
         <v>162200000000</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="0">
         <v>693100000000</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0">
         <v>50710000000</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0">
         <v>58710000000</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="0">
         <v>2013</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="0">
         <v>15967488835584</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="0">
         <v>13338595557376</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="0">
         <v>10024926576640</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="0">
         <v>567169974272</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="0">
         <v>7003830222848</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="0">
         <v>3082591141888</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="0">
         <v>3313669767168</v>
       </c>
-      <c r="X11">
-        <v>3.5520300269126892E-2</v>
-      </c>
-      <c r="Y11">
+      <c r="X11" s="0">
+        <v>0.035520300269126892</v>
+      </c>
+      <c r="Y11" s="0">
         <v>0.19305422902107239</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="0">
         <v>0.43863067030906677</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="0">
         <v>0.62783366441726685</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="0">
         <v>5942562258944</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="0">
         <v>37.216636657714844</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="0">
         <v>24.842718124389648</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="0">
         <v>51.873100280761719</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="0">
         <v>18.399131774902344</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="0">
         <v>69.864151000976562</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="0">
         <v>26.335582733154297</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="0">
         <v>749.13482666015625</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="0">
         <v>15.387979507446289</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="0">
         <v>10.692778587341309</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="0">
         <v>11.044511795043945</v>
       </c>
-      <c r="AM11">
-        <v>4.6952009201049805E-2</v>
-      </c>
-      <c r="AN11">
+      <c r="AM11" s="0">
+        <v>0.046952009201049805</v>
+      </c>
+      <c r="AN11" s="0">
         <v>39.868118286132812</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" s="0">
         <v>53.800277709960938</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" s="0">
         <v>52.756572723388672</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" s="0">
         <v>-0.13932162523269653</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" s="0">
         <v>44.759067535400391</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" s="0">
         <v>35.499717712402344</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" s="0">
         <v>36.193370819091797</v>
       </c>
-      <c r="AU11">
-        <v>9.2593491077423096E-2</v>
-      </c>
-      <c r="AV11">
+      <c r="AU11" s="0">
+        <v>0.092593491077423096</v>
+      </c>
+      <c r="AV11" s="0">
         <v>12.046299934387207</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" s="0">
         <v>9.6445369720458984</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" s="0">
         <v>9.8244619369506836</v>
       </c>
-      <c r="AY11">
-        <v>2.401762455701828E-2</v>
-      </c>
-      <c r="AZ11">
+      <c r="AY11" s="0">
+        <v>0.02401762455701828</v>
+      </c>
+      <c r="AZ11" s="0">
         <v>13.66108226776123</v>
       </c>
     </row>
-    <row r="12" spans="1:52">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0">
         <v>8274000000000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>647500000000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>414100000000</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>898700000000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>113500000000</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>59150000000</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>4390000000000</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>266000000000</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>187100000000</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="0">
         <v>2986000000000</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="0">
         <v>268100000000</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="0">
         <v>167900000000</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="0">
         <v>846100000000</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0">
         <v>43530000000</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0">
         <v>55380000000</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="0">
         <v>2015</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="0">
         <v>17756114124800</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="0">
         <v>14839397220352</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="0">
         <v>11246311047168</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="0">
         <v>771729981440</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="0">
         <v>8149770174464</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="0">
         <v>3551756550144</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="0">
         <v>3593086173184</v>
       </c>
-      <c r="X12">
-        <v>4.3462775647640228E-2</v>
-      </c>
-      <c r="Y12">
+      <c r="X12" s="0">
+        <v>0.043462775647640228</v>
+      </c>
+      <c r="Y12" s="0">
         <v>0.20003005862236023</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="0">
         <v>0.45898386836051941</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="0">
         <v>0.6333768367767334</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="0">
         <v>6509803077632</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="0">
         <v>36.662319183349609</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="0">
         <v>24.213153839111328</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="0">
         <v>54.560123443603516</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="0">
         <v>21.728122711181641</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="0">
         <v>72.466163635253906</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="0">
         <v>29.983816146850586</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="0">
         <v>865.02264404296875</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="0">
         <v>17.006595611572266</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="0">
         <v>10.809569358825684</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="0">
         <v>11.345625877380371</v>
       </c>
-      <c r="AM12">
-        <v>6.1970263719558716E-2</v>
-      </c>
-      <c r="AN12">
+      <c r="AM12" s="0">
+        <v>0.061970263719558716</v>
+      </c>
+      <c r="AN12" s="0">
         <v>41.741283416748047</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" s="0">
         <v>53.177822113037109</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" s="0">
         <v>52.188533782958984</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" s="0">
         <v>-0.11436539888381958</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" s="0">
         <v>41.267021179199219</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" s="0">
         <v>36.021018981933594</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" s="0">
         <v>36.474807739257812</v>
       </c>
-      <c r="AU12">
-        <v>5.2460044622421265E-2</v>
-      </c>
-      <c r="AV12">
+      <c r="AU12" s="0">
+        <v>0.052460044622421265</v>
+      </c>
+      <c r="AV12" s="0">
         <v>7.7933988571166992</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" s="0">
         <v>10.178030014038086</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" s="0">
         <v>9.9717531204223633</v>
       </c>
-      <c r="AY12">
-        <v>-2.3846305906772614E-2</v>
-      </c>
-      <c r="AZ12">
+      <c r="AY12" s="0">
+        <v>-0.023846305906772614</v>
+      </c>
+      <c r="AZ12" s="0">
         <v>16.359207153320312</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4836,507 +4806,502 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>8.1913566100411117E-2</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="0">
+        <v>0.081913566100411117</v>
+      </c>
+      <c r="C2" s="0">
         <v>0.30037030810490251</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>1.2306782766245306</v>
       </c>
-      <c r="E2">
-        <v>6.3266612414736301E-2</v>
-      </c>
-      <c r="F2">
-        <v>-9.2993622092762962E-2</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="0">
+        <v>0.063266612414736301</v>
+      </c>
+      <c r="F2" s="0">
+        <v>-0.092993622092762962</v>
+      </c>
+      <c r="G2" s="0">
         <v>0.15626023669028655</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>1.6762288808822632</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>1.5854849815368652</v>
       </c>
-      <c r="J2">
-        <v>9.0743787586688995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="0">
+        <v>0.090743787586688995</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>0.15985958598321304</v>
       </c>
-      <c r="C3">
-        <v>-1.9190629245713353E-2</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="0">
+        <v>-0.019190629245713353</v>
+      </c>
+      <c r="D3" s="0">
         <v>1.00492003839463</v>
       </c>
-      <c r="E3">
-        <v>5.4565015307161957E-2</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="0">
+        <v>0.054565015307161957</v>
+      </c>
+      <c r="F3" s="0">
         <v>-0.17241596233361633</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>0.22698097309330478</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>1.2001539468765259</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>1.1262636184692383</v>
       </c>
-      <c r="J3">
-        <v>7.389029860496521E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="0">
+        <v>0.07389029860496521</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>-6.688511130050756E-2</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="0">
+        <v>-0.06688511130050756</v>
+      </c>
+      <c r="C4" s="0">
         <v>-0.5445484071969986</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.72413228917866945</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.30011266353540123</v>
       </c>
-      <c r="F4">
-        <v>5.1557919505285099E-2</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="0">
+        <v>0.051557919505285099</v>
+      </c>
+      <c r="G4" s="0">
         <v>0.24855474475771189</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>0.41281142830848694</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>0.33024847507476807</v>
       </c>
-      <c r="J4">
-        <v>8.2562953233718872E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="0">
+        <v>0.082562953233718872</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>0.28886981890536845</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>0.16700015403330326</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>1.7847999348305166</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>-0.30977311835158616</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>-0.13074396142869205</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>-0.17902914696605876</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>1.9308967590332031</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>2.2279746532440186</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0">
         <v>-0.29707792401313782</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>0.39782855747034773</v>
       </c>
-      <c r="C6">
-        <v>8.0502877244725823E-2</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="0">
+        <v>0.080502877244725823</v>
+      </c>
+      <c r="D6" s="0">
         <v>1.6819430631585419</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>-0.59172878973186016</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>-0.30566048808395863</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>-0.28606833657249808</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>1.5685455799102783</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>1.5853308439254761</v>
       </c>
-      <c r="J6">
-        <v>-1.6785226762294769E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="0">
+        <v>-0.016785226762294769</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>0.12167016757302918</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>-0.25178671639878303</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>0.27868119068443775</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>-0.37752051139250398</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>-0.17296685400651768</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>-0.20455367412068881</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>-0.22895587980747223</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>-0.27521252632141113</v>
       </c>
-      <c r="J7">
-        <v>4.6256650239229202E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="0">
+        <v>0.046256650239229202</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>-7.2030961746349931E-2</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="0">
+        <v>-0.072030961746349931</v>
+      </c>
+      <c r="C8" s="0">
         <v>-0.36505599273368716</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>0.49589176123845391</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>0.26168259792029858</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>0.29877127381041646</v>
       </c>
-      <c r="G8">
-        <v>-3.7088716635480523E-2</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="0">
+        <v>-0.037088716635480523</v>
+      </c>
+      <c r="H8" s="0">
         <v>0.32048740983009338</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>1.0185182094573975</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="0">
         <v>-0.69803082942962646</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>-0.18964177543239202</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>-0.54015294881537557</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>1.8426202645059675</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>-0.13251004565972835</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>-0.10889530822169036</v>
       </c>
-      <c r="G9">
-        <v>-2.3614734527654946E-2</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="0">
+        <v>-0.023614734527654946</v>
+      </c>
+      <c r="H9" s="0">
         <v>0.9803154468536377</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>1.0094656944274902</v>
       </c>
-      <c r="J9">
-        <v>-2.9150303453207016E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="0">
+        <v>-0.029150303453207016</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>0.10553290230745915</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>0.46601513167843223</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>2.7131787443067878</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>-0.22857352450955659</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>-0.26093321503140032</v>
       </c>
-      <c r="G10">
-        <v>3.2359696342609823E-2</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="0">
+        <v>0.032359696342609823</v>
+      </c>
+      <c r="H10" s="0">
         <v>3.0561530590057373</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>2.9491207599639893</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="0">
         <v>0.10703224688768387</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>0.11114367371192202</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>1.3873311472707428</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>-1.2758674565702677</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>-0.57519684050930664</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>-0.1238328709405323</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>-0.45136398111935705</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>-0.35258945822715759</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>-0.60170066356658936</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="0">
         <v>0.24911123514175415</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>-2.0165675414318684E-2</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="0">
+        <v>-0.020165675414318684</v>
+      </c>
+      <c r="C12" s="0">
         <v>0.86470512906089425</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>0.35698151914402843</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>-0.5563610524404794</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>-0.26018786593340337</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>-0.29617319232784212</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>0.64515990018844604</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>0.35374835133552551</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="0">
         <v>0.29141151905059814</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>-7.3765535489656031E-3</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="0">
+        <v>-0.0073765535489656031</v>
+      </c>
+      <c r="C13" s="0">
         <v>-0.31683460110798478</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>1.4128115260973573</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>0.11574033997021616</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>-0.24704925017431378</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>0.3627895814133808</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>1.2043406963348389</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>2.0132839679718018</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="0">
         <v>-0.80894327163696289</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>9.065859007932886E-2</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="0">
+        <v>0.09065859007932886</v>
+      </c>
+      <c r="C14" s="0">
         <v>-0.67291315644979477</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>-1.211609086021781</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>-0.23954870994202793</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>-0.30390852480195463</v>
       </c>
-      <c r="G14">
-        <v>6.4359820680692792E-2</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="0">
+        <v>0.064359820680692792</v>
+      </c>
+      <c r="H14" s="0">
         <v>-2.0334122180938721</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>-1.9344642162322998</v>
       </c>
-      <c r="J14">
-        <v>-9.8947994410991669E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="0">
+        <v>-0.098947994410991669</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>7.8549915644998691E-2</v>
-      </c>
-      <c r="C15">
-        <v>-8.2797586583183147E-2</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="0">
+        <v>0.078549915644998691</v>
+      </c>
+      <c r="C15" s="0">
+        <v>-0.082797586583183147</v>
+      </c>
+      <c r="D15" s="0">
         <v>1.4314135885797441</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>-0.15082992031238973</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>-0.25111708528129384</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>0.10028716351371258</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>1.2763359546661377</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>1.3185315132141113</v>
       </c>
-      <c r="J15">
-        <v>-4.2195525020360947E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="0">
+        <v>-0.042195525020360947</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>0.18722966215136694</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>-1.0018349101301283</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>4.8925060778856277</v>
       </c>
-      <c r="E16">
-        <v>-1.0135510819964111E-2</v>
-      </c>
-      <c r="F16">
-        <v>8.7227512631216086E-2</v>
-      </c>
-      <c r="G16">
-        <v>-9.736302342844283E-2</v>
-      </c>
-      <c r="H16">
+      <c r="E16" s="0">
+        <v>-0.010135510819964111</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.087227512631216086</v>
+      </c>
+      <c r="G16" s="0">
+        <v>-0.09736302342844283</v>
+      </c>
+      <c r="H16" s="0">
         <v>4.0677657127380371</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>3.998185396194458</v>
       </c>
-      <c r="J16">
-        <v>6.9580227136611938E-2</v>
+      <c r="J16" s="0">
+        <v>0.069580227136611938</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5359,358 +5324,353 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2.5769917294383049E-2</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="0">
+        <v>0.025769917294383049</v>
+      </c>
+      <c r="C2" s="0">
         <v>0.92452174425125122</v>
       </c>
-      <c r="D2">
-        <v>7.5478240847587585E-2</v>
-      </c>
-      <c r="E2">
-        <v>4.9006529152393341E-2</v>
-      </c>
-      <c r="F2">
-        <v>1.2711282819509506E-2</v>
-      </c>
-      <c r="G2">
-        <v>2.3898197337985039E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="D2" s="0">
+        <v>0.075478240847587585</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.049006529152393341</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.012711282819509506</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.023898197337985039</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2.7501862496137619E-2</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="0">
+        <v>0.027501862496137619</v>
+      </c>
+      <c r="C3" s="0">
         <v>0.92738020420074463</v>
       </c>
-      <c r="D3">
-        <v>7.2619780898094177E-2</v>
-      </c>
-      <c r="E3">
-        <v>3.7163842469453812E-2</v>
-      </c>
-      <c r="F3">
-        <v>1.7318326979875565E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.3045496307313442E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="D3" s="0">
+        <v>0.072619780898094177</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.037163842469453812</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.017318326979875565</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.013045496307313442</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3.0017640441656113E-2</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="0">
+        <v>0.030017640441656113</v>
+      </c>
+      <c r="C4" s="0">
         <v>0.93359619379043579</v>
       </c>
-      <c r="D4">
-        <v>6.6403813660144806E-2</v>
-      </c>
-      <c r="E4">
-        <v>7.9300381243228912E-2</v>
-      </c>
-      <c r="F4">
-        <v>2.2435583174228668E-2</v>
-      </c>
-      <c r="G4">
-        <v>2.6023145765066147E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="D4" s="0">
+        <v>0.066403813660144806</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.079300381243228912</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.022435583174228668</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.026023145765066147</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>6.4271531999111176E-2</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="0">
+        <v>0.064271531999111176</v>
+      </c>
+      <c r="C5" s="0">
         <v>0.91448104381561279</v>
       </c>
-      <c r="D5">
-        <v>8.5518933832645416E-2</v>
-      </c>
-      <c r="E5">
-        <v>9.7170814871788025E-2</v>
-      </c>
-      <c r="F5">
-        <v>2.6894407346844673E-2</v>
-      </c>
-      <c r="G5">
-        <v>5.4438766092061996E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5" s="0">
+        <v>0.085518933832645416</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.097170814871788025</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.026894407346844673</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.054438766092061996</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>6.5206192433834076E-2</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="0">
+        <v>0.065206192433834076</v>
+      </c>
+      <c r="C6" s="0">
         <v>0.94064623117446899</v>
       </c>
-      <c r="D6">
-        <v>5.935375764966011E-2</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="0">
+        <v>0.05935375764966011</v>
+      </c>
+      <c r="E6" s="0">
         <v>0.13250528275966644</v>
       </c>
-      <c r="F6">
-        <v>6.8574376404285431E-2</v>
-      </c>
-      <c r="G6">
-        <v>2.9134869575500488E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="0">
+        <v>0.068574376404285431</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.029134869575500488</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>2.2263145074248314E-2</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="0">
+        <v>0.022263145074248314</v>
+      </c>
+      <c r="C7" s="0">
         <v>0.92049747705459595</v>
       </c>
-      <c r="D7">
-        <v>7.9502537846565247E-2</v>
-      </c>
-      <c r="E7">
-        <v>3.0232952907681465E-2</v>
-      </c>
-      <c r="F7">
-        <v>1.1196233332157135E-2</v>
-      </c>
-      <c r="G7">
-        <v>1.3378439471125603E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="D7" s="0">
+        <v>0.079502537846565247</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.030232952907681465</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.011196233332157135</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.013378439471125603</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>9.9051617085933685E-2</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="0">
+        <v>0.099051617085933685</v>
+      </c>
+      <c r="C8" s="0">
         <v>0.89945918321609497</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>0.10054083913564682</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>0.14818598330020905</v>
       </c>
-      <c r="F8">
-        <v>7.913757860660553E-2</v>
-      </c>
-      <c r="G8">
-        <v>4.5154973864555359E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="0">
+        <v>0.07913757860660553</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0.045154973864555359</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>2.2940525785088539E-2</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="0">
+        <v>0.022940525785088539</v>
+      </c>
+      <c r="C9" s="0">
         <v>0.9136507511138916</v>
       </c>
-      <c r="D9">
-        <v>8.6349278688430786E-2</v>
-      </c>
-      <c r="E9">
-        <v>3.7111010402441025E-2</v>
-      </c>
-      <c r="F9">
-        <v>8.4880515933036804E-3</v>
-      </c>
-      <c r="G9">
-        <v>2.4081304669380188E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="D9" s="0">
+        <v>0.086349278688430786</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.037111010402441025</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.0084880515933036804</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0.024081304669380188</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>3.1923234462738037E-2</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="0">
+        <v>0.031923234462738037</v>
+      </c>
+      <c r="C10" s="0">
         <v>0.84565228223800659</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>0.1543477326631546</v>
       </c>
-      <c r="E10">
-        <v>3.0021950602531433E-2</v>
-      </c>
-      <c r="F10">
-        <v>1.2848173268139362E-2</v>
-      </c>
-      <c r="G10">
-        <v>1.814277283847332E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="E10" s="0">
+        <v>0.030021950602531433</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.012848173268139362</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.01814277283847332</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>2.85933967679739E-2</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="0">
+        <v>0.0285933967679739</v>
+      </c>
+      <c r="C11" s="0">
         <v>0.94195139408111572</v>
       </c>
-      <c r="D11">
-        <v>5.8048635721206665E-2</v>
-      </c>
-      <c r="E11">
-        <v>6.1027642339468002E-2</v>
-      </c>
-      <c r="F11">
-        <v>1.6137769445776939E-2</v>
-      </c>
-      <c r="G11">
-        <v>2.4589916691184044E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="D11" s="0">
+        <v>0.058048635721206665</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.061027642339468002</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.016137769445776939</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.024589916691184044</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>4.904310405254364E-2</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="0">
+        <v>0.04904310405254364</v>
+      </c>
+      <c r="C12" s="0">
         <v>0.86687612533569336</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>0.13312384486198425</v>
       </c>
-      <c r="E12">
-        <v>6.2040939927101135E-2</v>
-      </c>
-      <c r="F12">
-        <v>1.6546914353966713E-2</v>
-      </c>
-      <c r="G12">
-        <v>4.4841963797807693E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="E12" s="0">
+        <v>0.062040939927101135</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.016546914353966713</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0.044841963797807693</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>4.2455263435840607E-2</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="0">
+        <v>0.042455263435840607</v>
+      </c>
+      <c r="C13" s="0">
         <v>0.93314623832702637</v>
       </c>
-      <c r="D13">
-        <v>6.6853776574134827E-2</v>
-      </c>
-      <c r="E13">
-        <v>8.7503023445606232E-2</v>
-      </c>
-      <c r="F13">
-        <v>3.9319362491369247E-2</v>
-      </c>
-      <c r="G13">
-        <v>2.347603440284729E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="D13" s="0">
+        <v>0.066853776574134827</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.087503023445606232</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.039319362491369247</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.02347603440284729</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>3.284589946269989E-2</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="0">
+        <v>0.03284589946269989</v>
+      </c>
+      <c r="C14" s="0">
         <v>0.934814453125</v>
       </c>
-      <c r="D14">
-        <v>6.5185524523258209E-2</v>
-      </c>
-      <c r="E14">
-        <v>5.8278437703847885E-2</v>
-      </c>
-      <c r="F14">
-        <v>1.5825331211090088E-2</v>
-      </c>
-      <c r="G14">
-        <v>2.7790194377303123E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="D14" s="0">
+        <v>0.065185524523258209</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.058278437703847885</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.015825331211090088</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.027790194377303123</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>4.2898021638393402E-2</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="0">
+        <v>0.042898021638393402</v>
+      </c>
+      <c r="C15" s="0">
         <v>0.91349375247955322</v>
       </c>
-      <c r="D15">
-        <v>8.6506284773349762E-2</v>
-      </c>
-      <c r="E15">
-        <v>6.6093519330024719E-2</v>
-      </c>
-      <c r="F15">
-        <v>1.877293735742569E-2</v>
-      </c>
-      <c r="G15">
-        <v>3.5725723952054977E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="D15" s="0">
+        <v>0.086506284773349762</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.066093519330024719</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.01877293735742569</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.035725723952054977</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1.693166047334671E-2</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="0">
+        <v>0.01693166047334671</v>
+      </c>
+      <c r="C16" s="0">
         <v>0.91506904363632202</v>
       </c>
-      <c r="D16">
-        <v>8.4930934011936188E-2</v>
-      </c>
-      <c r="E16">
-        <v>1.5352743677794933E-2</v>
-      </c>
-      <c r="F16">
-        <v>6.1890915967524052E-3</v>
-      </c>
-      <c r="G16">
-        <v>8.6775217205286026E-3</v>
+      <c r="D16" s="0">
+        <v>0.084930934011936188</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.015352743677794933</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.0061890915967524052</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0.0086775217205286026</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>